--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Slc40a1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.55106321901174</v>
+        <v>5.556557</v>
       </c>
       <c r="H2">
-        <v>5.55106321901174</v>
+        <v>11.113114</v>
       </c>
       <c r="I2">
-        <v>0.08692660252418968</v>
+        <v>0.08157376206014741</v>
       </c>
       <c r="J2">
-        <v>0.08692660252418968</v>
+        <v>0.0621180110597097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.00724431067492</v>
+        <v>1.213046</v>
       </c>
       <c r="N2">
-        <v>1.00724431067492</v>
+        <v>2.426092</v>
       </c>
       <c r="O2">
-        <v>0.08052557584625857</v>
+        <v>0.05336321833961649</v>
       </c>
       <c r="P2">
-        <v>0.08052557584625857</v>
+        <v>0.04472798873679122</v>
       </c>
       <c r="Q2">
-        <v>5.591276845546383</v>
+        <v>6.740359242622</v>
       </c>
       <c r="R2">
-        <v>5.591276845546383</v>
+        <v>26.961436970488</v>
       </c>
       <c r="S2">
-        <v>0.006999814724619208</v>
+        <v>0.00435303847559957</v>
       </c>
       <c r="T2">
-        <v>0.006999814724619208</v>
+        <v>0.002778413699030568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.55106321901174</v>
+        <v>5.556557</v>
       </c>
       <c r="H3">
-        <v>5.55106321901174</v>
+        <v>11.113114</v>
       </c>
       <c r="I3">
-        <v>0.08692660252418968</v>
+        <v>0.08157376206014741</v>
       </c>
       <c r="J3">
-        <v>0.08692660252418968</v>
+        <v>0.0621180110597097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217694049622112</v>
+        <v>0.281543</v>
       </c>
       <c r="N3">
-        <v>0.217694049622112</v>
+        <v>0.844629</v>
       </c>
       <c r="O3">
-        <v>0.01740385973724522</v>
+        <v>0.01238538405055591</v>
       </c>
       <c r="P3">
-        <v>0.01740385973724522</v>
+        <v>0.01557177402949568</v>
       </c>
       <c r="Q3">
-        <v>1.208433431855022</v>
+        <v>1.564409727451</v>
       </c>
       <c r="R3">
-        <v>1.208433431855022</v>
+        <v>9.386458364706</v>
       </c>
       <c r="S3">
-        <v>0.001512858397766264</v>
+        <v>0.001010322371563593</v>
       </c>
       <c r="T3">
-        <v>0.001512858397766264</v>
+        <v>0.0009672876313835129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.55106321901174</v>
+        <v>5.556557</v>
       </c>
       <c r="H4">
-        <v>5.55106321901174</v>
+        <v>11.113114</v>
       </c>
       <c r="I4">
-        <v>0.08692660252418968</v>
+        <v>0.08157376206014741</v>
       </c>
       <c r="J4">
-        <v>0.08692660252418968</v>
+        <v>0.0621180110597097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.88919669416202</v>
+        <v>4.907802333333334</v>
       </c>
       <c r="N4">
-        <v>1.88919669416202</v>
+        <v>14.723407</v>
       </c>
       <c r="O4">
-        <v>0.1510345107656239</v>
+        <v>0.215899584584052</v>
       </c>
       <c r="P4">
-        <v>0.1510345107656239</v>
+        <v>0.2714441094827373</v>
       </c>
       <c r="Q4">
-        <v>10.48705028244136</v>
+        <v>27.27048340989967</v>
       </c>
       <c r="R4">
-        <v>10.48705028244136</v>
+        <v>163.622900459398</v>
       </c>
       <c r="S4">
-        <v>0.01312891688475884</v>
+        <v>0.01761174134174413</v>
       </c>
       <c r="T4">
-        <v>0.01312891688475884</v>
+        <v>0.01686156819494173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.55106321901174</v>
+        <v>5.556557</v>
       </c>
       <c r="H5">
-        <v>5.55106321901174</v>
+        <v>11.113114</v>
       </c>
       <c r="I5">
-        <v>0.08692660252418968</v>
+        <v>0.08157376206014741</v>
       </c>
       <c r="J5">
-        <v>0.08692660252418968</v>
+        <v>0.0621180110597097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06632170407475</v>
+        <v>3.286588</v>
       </c>
       <c r="N5">
-        <v>3.06632170407475</v>
+        <v>9.859764</v>
       </c>
       <c r="O5">
-        <v>0.2451414401984055</v>
+        <v>0.144580595489671</v>
       </c>
       <c r="P5">
-        <v>0.2451414401984055</v>
+        <v>0.1817768712560857</v>
       </c>
       <c r="Q5">
-        <v>17.02134562914675</v>
+        <v>18.262113557516</v>
       </c>
       <c r="R5">
-        <v>17.02134562914675</v>
+        <v>109.572681345096</v>
       </c>
       <c r="S5">
-        <v>0.02130931253433421</v>
+        <v>0.01179398309498885</v>
       </c>
       <c r="T5">
-        <v>0.02130931253433421</v>
+        <v>0.01129161769908496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.55106321901174</v>
+        <v>5.556557</v>
       </c>
       <c r="H6">
-        <v>5.55106321901174</v>
+        <v>11.113114</v>
       </c>
       <c r="I6">
-        <v>0.08692660252418968</v>
+        <v>0.08157376206014741</v>
       </c>
       <c r="J6">
-        <v>0.08692660252418968</v>
+        <v>0.0621180110597097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.228381743088031</v>
+        <v>0.301343</v>
       </c>
       <c r="N6">
-        <v>0.228381743088031</v>
+        <v>0.904029</v>
       </c>
       <c r="O6">
-        <v>0.01825830255880332</v>
+        <v>0.01325640767465953</v>
       </c>
       <c r="P6">
-        <v>0.01825830255880332</v>
+        <v>0.01666688605779691</v>
       </c>
       <c r="Q6">
-        <v>1.267761493949758</v>
+        <v>1.674429556051</v>
       </c>
       <c r="R6">
-        <v>1.267761493949758</v>
+        <v>10.046577336306</v>
       </c>
       <c r="S6">
-        <v>0.001587132209295492</v>
+        <v>0.001081375045424989</v>
       </c>
       <c r="T6">
-        <v>0.001587132209295492</v>
+        <v>0.00103531381246915</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.55106321901174</v>
+        <v>5.556557</v>
       </c>
       <c r="H7">
-        <v>5.55106321901174</v>
+        <v>11.113114</v>
       </c>
       <c r="I7">
-        <v>0.08692660252418968</v>
+        <v>0.08157376206014741</v>
       </c>
       <c r="J7">
-        <v>0.08692660252418968</v>
+        <v>0.0621180110597097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.09953911740912</v>
+        <v>12.7415525</v>
       </c>
       <c r="N7">
-        <v>6.09953911740912</v>
+        <v>25.483105</v>
       </c>
       <c r="O7">
-        <v>0.4876363108936635</v>
+        <v>0.560514809861445</v>
       </c>
       <c r="P7">
-        <v>0.4876363108936635</v>
+        <v>0.4698123704370931</v>
       </c>
       <c r="Q7">
-        <v>33.8589272475731</v>
+        <v>70.7991627347425</v>
       </c>
       <c r="R7">
-        <v>33.8589272475731</v>
+        <v>283.19665093897</v>
       </c>
       <c r="S7">
-        <v>0.04238856777341567</v>
+        <v>0.04572330173082628</v>
       </c>
       <c r="T7">
-        <v>0.04238856777341567</v>
+        <v>0.02918381002279978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.532960617025</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H8">
-        <v>27.532960617025</v>
+        <v>87.276877</v>
       </c>
       <c r="I8">
-        <v>0.4311510479061685</v>
+        <v>0.4270932040440842</v>
       </c>
       <c r="J8">
-        <v>0.4311510479061685</v>
+        <v>0.4878440022070253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00724431067492</v>
+        <v>1.213046</v>
       </c>
       <c r="N8">
-        <v>1.00724431067492</v>
+        <v>2.426092</v>
       </c>
       <c r="O8">
-        <v>0.08052557584625857</v>
+        <v>0.05336321833961649</v>
       </c>
       <c r="P8">
-        <v>0.08052557584625857</v>
+        <v>0.04472798873679122</v>
       </c>
       <c r="Q8">
-        <v>27.73241793753507</v>
+        <v>35.29028884578067</v>
       </c>
       <c r="R8">
-        <v>27.73241793753507</v>
+        <v>211.741733074684</v>
       </c>
       <c r="S8">
-        <v>0.03471868640936203</v>
+        <v>0.02279106789877084</v>
       </c>
       <c r="T8">
-        <v>0.03471868640936203</v>
+        <v>0.02182028103602698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.532960617025</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H9">
-        <v>27.532960617025</v>
+        <v>87.276877</v>
       </c>
       <c r="I9">
-        <v>0.4311510479061685</v>
+        <v>0.4270932040440842</v>
       </c>
       <c r="J9">
-        <v>0.4311510479061685</v>
+        <v>0.4878440022070253</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.217694049622112</v>
+        <v>0.281543</v>
       </c>
       <c r="N9">
-        <v>0.217694049622112</v>
+        <v>0.844629</v>
       </c>
       <c r="O9">
-        <v>0.01740385973724522</v>
+        <v>0.01238538405055591</v>
       </c>
       <c r="P9">
-        <v>0.01740385973724522</v>
+        <v>0.01557177402949568</v>
       </c>
       <c r="Q9">
-        <v>5.993761694806296</v>
+        <v>8.190731260403666</v>
       </c>
       <c r="R9">
-        <v>5.993761694806296</v>
+        <v>73.716581343633</v>
       </c>
       <c r="S9">
-        <v>0.007503692363325251</v>
+        <v>0.005289713357468421</v>
       </c>
       <c r="T9">
-        <v>0.007503692363325251</v>
+        <v>0.007596596564012589</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.532960617025</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H10">
-        <v>27.532960617025</v>
+        <v>87.276877</v>
       </c>
       <c r="I10">
-        <v>0.4311510479061685</v>
+        <v>0.4270932040440842</v>
       </c>
       <c r="J10">
-        <v>0.4311510479061685</v>
+        <v>0.4878440022070253</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.88919669416202</v>
+        <v>4.907802333333334</v>
       </c>
       <c r="N10">
-        <v>1.88919669416202</v>
+        <v>14.723407</v>
       </c>
       <c r="O10">
-        <v>0.1510345107656239</v>
+        <v>0.215899584584052</v>
       </c>
       <c r="P10">
-        <v>0.1510345107656239</v>
+        <v>0.2714441094827373</v>
       </c>
       <c r="Q10">
-        <v>52.01517817817672</v>
+        <v>142.7792201955488</v>
       </c>
       <c r="R10">
-        <v>52.01517817817672</v>
+        <v>1285.012981759939</v>
       </c>
       <c r="S10">
-        <v>0.06511868758659424</v>
+        <v>0.09220924533178954</v>
       </c>
       <c r="T10">
-        <v>0.06511868758659424</v>
+        <v>0.1324223807455805</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.532960617025</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H11">
-        <v>27.532960617025</v>
+        <v>87.276877</v>
       </c>
       <c r="I11">
-        <v>0.4311510479061685</v>
+        <v>0.4270932040440842</v>
       </c>
       <c r="J11">
-        <v>0.4311510479061685</v>
+        <v>0.4878440022070253</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.06632170407475</v>
+        <v>3.286588</v>
       </c>
       <c r="N11">
-        <v>3.06632170407475</v>
+        <v>9.859764</v>
       </c>
       <c r="O11">
-        <v>0.2451414401984055</v>
+        <v>0.144580595489671</v>
       </c>
       <c r="P11">
-        <v>0.2451414401984055</v>
+        <v>0.1817768712560857</v>
       </c>
       <c r="Q11">
-        <v>84.42491471741909</v>
+        <v>95.61437887522533</v>
       </c>
       <c r="R11">
-        <v>84.42491471741909</v>
+        <v>860.529409877028</v>
       </c>
       <c r="S11">
-        <v>0.1056929888267699</v>
+        <v>0.06174938977028527</v>
       </c>
       <c r="T11">
-        <v>0.1056929888267699</v>
+        <v>0.08867875638224004</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.532960617025</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H12">
-        <v>27.532960617025</v>
+        <v>87.276877</v>
       </c>
       <c r="I12">
-        <v>0.4311510479061685</v>
+        <v>0.4270932040440842</v>
       </c>
       <c r="J12">
-        <v>0.4311510479061685</v>
+        <v>0.4878440022070253</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.228381743088031</v>
+        <v>0.301343</v>
       </c>
       <c r="N12">
-        <v>0.228381743088031</v>
+        <v>0.904029</v>
       </c>
       <c r="O12">
-        <v>0.01825830255880332</v>
+        <v>0.01325640767465953</v>
       </c>
       <c r="P12">
-        <v>0.01825830255880332</v>
+        <v>0.01666688605779691</v>
       </c>
       <c r="Q12">
-        <v>6.288025538090279</v>
+        <v>8.766758648603666</v>
       </c>
       <c r="R12">
-        <v>6.288025538090279</v>
+        <v>78.900827837433</v>
       </c>
       <c r="S12">
-        <v>0.007872086281215929</v>
+        <v>0.005661721627884928</v>
       </c>
       <c r="T12">
-        <v>0.007872086281215929</v>
+        <v>0.008130840398764116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.532960617025</v>
+        <v>29.09229233333333</v>
       </c>
       <c r="H13">
-        <v>27.532960617025</v>
+        <v>87.276877</v>
       </c>
       <c r="I13">
-        <v>0.4311510479061685</v>
+        <v>0.4270932040440842</v>
       </c>
       <c r="J13">
-        <v>0.4311510479061685</v>
+        <v>0.4878440022070253</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.09953911740912</v>
+        <v>12.7415525</v>
       </c>
       <c r="N13">
-        <v>6.09953911740912</v>
+        <v>25.483105</v>
       </c>
       <c r="O13">
-        <v>0.4876363108936635</v>
+        <v>0.560514809861445</v>
       </c>
       <c r="P13">
-        <v>0.4876363108936635</v>
+        <v>0.4698123704370931</v>
       </c>
       <c r="Q13">
-        <v>167.9383703016287</v>
+        <v>370.6809701105142</v>
       </c>
       <c r="R13">
-        <v>167.9383703016287</v>
+        <v>2224.085820663085</v>
       </c>
       <c r="S13">
-        <v>0.2102449064389012</v>
+        <v>0.2393920660578852</v>
       </c>
       <c r="T13">
-        <v>0.2102449064389012</v>
+        <v>0.229195147080401</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>6.12568893548003</v>
+        <v>1.533276</v>
       </c>
       <c r="H14">
-        <v>6.12568893548003</v>
+        <v>4.599828</v>
       </c>
       <c r="I14">
-        <v>0.09592492577955146</v>
+        <v>0.02250945893230909</v>
       </c>
       <c r="J14">
-        <v>0.09592492577955146</v>
+        <v>0.02571126028013052</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.00724431067492</v>
+        <v>1.213046</v>
       </c>
       <c r="N14">
-        <v>1.00724431067492</v>
+        <v>2.426092</v>
       </c>
       <c r="O14">
-        <v>0.08052557584625857</v>
+        <v>0.05336321833961649</v>
       </c>
       <c r="P14">
-        <v>0.08052557584625857</v>
+        <v>0.04472798873679122</v>
       </c>
       <c r="Q14">
-        <v>6.170065329226567</v>
+        <v>1.859934318696</v>
       </c>
       <c r="R14">
-        <v>6.170065329226567</v>
+        <v>11.159605912176</v>
       </c>
       <c r="S14">
-        <v>0.007724409886407995</v>
+        <v>0.001201177171711441</v>
       </c>
       <c r="T14">
-        <v>0.007724409886407995</v>
+        <v>0.001150012960218385</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>6.12568893548003</v>
+        <v>1.533276</v>
       </c>
       <c r="H15">
-        <v>6.12568893548003</v>
+        <v>4.599828</v>
       </c>
       <c r="I15">
-        <v>0.09592492577955146</v>
+        <v>0.02250945893230909</v>
       </c>
       <c r="J15">
-        <v>0.09592492577955146</v>
+        <v>0.02571126028013052</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.217694049622112</v>
+        <v>0.281543</v>
       </c>
       <c r="N15">
-        <v>0.217694049622112</v>
+        <v>0.844629</v>
       </c>
       <c r="O15">
-        <v>0.01740385973724522</v>
+        <v>0.01238538405055591</v>
       </c>
       <c r="P15">
-        <v>0.01740385973724522</v>
+        <v>0.01557177402949568</v>
       </c>
       <c r="Q15">
-        <v>1.333526031090012</v>
+        <v>0.431683124868</v>
       </c>
       <c r="R15">
-        <v>1.333526031090012</v>
+        <v>3.885148123812</v>
       </c>
       <c r="S15">
-        <v>0.001669463953572972</v>
+        <v>0.0002787882936468643</v>
       </c>
       <c r="T15">
-        <v>0.001669463953572972</v>
+        <v>0.0004003699350957402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>6.12568893548003</v>
+        <v>1.533276</v>
       </c>
       <c r="H16">
-        <v>6.12568893548003</v>
+        <v>4.599828</v>
       </c>
       <c r="I16">
-        <v>0.09592492577955146</v>
+        <v>0.02250945893230909</v>
       </c>
       <c r="J16">
-        <v>0.09592492577955146</v>
+        <v>0.02571126028013052</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.88919669416202</v>
+        <v>4.907802333333334</v>
       </c>
       <c r="N16">
-        <v>1.88919669416202</v>
+        <v>14.723407</v>
       </c>
       <c r="O16">
-        <v>0.1510345107656239</v>
+        <v>0.215899584584052</v>
       </c>
       <c r="P16">
-        <v>0.1510345107656239</v>
+        <v>0.2714441094827373</v>
       </c>
       <c r="Q16">
-        <v>11.57263128637373</v>
+        <v>7.525015530444001</v>
       </c>
       <c r="R16">
-        <v>11.57263128637373</v>
+        <v>67.72513977399601</v>
       </c>
       <c r="S16">
-        <v>0.01448797423534334</v>
+        <v>0.004859782832697311</v>
       </c>
       <c r="T16">
-        <v>0.01448797423534334</v>
+        <v>0.006979170150418903</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>6.12568893548003</v>
+        <v>1.533276</v>
       </c>
       <c r="H17">
-        <v>6.12568893548003</v>
+        <v>4.599828</v>
       </c>
       <c r="I17">
-        <v>0.09592492577955146</v>
+        <v>0.02250945893230909</v>
       </c>
       <c r="J17">
-        <v>0.09592492577955146</v>
+        <v>0.02571126028013052</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.06632170407475</v>
+        <v>3.286588</v>
       </c>
       <c r="N17">
-        <v>3.06632170407475</v>
+        <v>9.859764</v>
       </c>
       <c r="O17">
-        <v>0.2451414401984055</v>
+        <v>0.144580595489671</v>
       </c>
       <c r="P17">
-        <v>0.2451414401984055</v>
+        <v>0.1817768712560857</v>
       </c>
       <c r="Q17">
-        <v>18.78333293527297</v>
+        <v>5.039246502288</v>
       </c>
       <c r="R17">
-        <v>18.78333293527297</v>
+        <v>45.35321852059201</v>
       </c>
       <c r="S17">
-        <v>0.0235151744565244</v>
+        <v>0.003254430976583543</v>
       </c>
       <c r="T17">
-        <v>0.0235151744565244</v>
+        <v>0.004673712449772997</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>6.12568893548003</v>
+        <v>1.533276</v>
       </c>
       <c r="H18">
-        <v>6.12568893548003</v>
+        <v>4.599828</v>
       </c>
       <c r="I18">
-        <v>0.09592492577955146</v>
+        <v>0.02250945893230909</v>
       </c>
       <c r="J18">
-        <v>0.09592492577955146</v>
+        <v>0.02571126028013052</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.228381743088031</v>
+        <v>0.301343</v>
       </c>
       <c r="N18">
-        <v>0.228381743088031</v>
+        <v>0.904029</v>
       </c>
       <c r="O18">
-        <v>0.01825830255880332</v>
+        <v>0.01325640767465953</v>
       </c>
       <c r="P18">
-        <v>0.01825830255880332</v>
+        <v>0.01666688605779691</v>
       </c>
       <c r="Q18">
-        <v>1.398995516699994</v>
+        <v>0.462041989668</v>
       </c>
       <c r="R18">
-        <v>1.398995516699994</v>
+        <v>4.158377907012</v>
       </c>
       <c r="S18">
-        <v>0.001751426317813803</v>
+        <v>0.0002983945641426958</v>
       </c>
       <c r="T18">
-        <v>0.001751426317813803</v>
+        <v>0.0004285266454912949</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>6.12568893548003</v>
+        <v>1.533276</v>
       </c>
       <c r="H19">
-        <v>6.12568893548003</v>
+        <v>4.599828</v>
       </c>
       <c r="I19">
-        <v>0.09592492577955146</v>
+        <v>0.02250945893230909</v>
       </c>
       <c r="J19">
-        <v>0.09592492577955146</v>
+        <v>0.02571126028013052</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.09953911740912</v>
+        <v>12.7415525</v>
       </c>
       <c r="N19">
-        <v>6.09953911740912</v>
+        <v>25.483105</v>
       </c>
       <c r="O19">
-        <v>0.4876363108936635</v>
+        <v>0.560514809861445</v>
       </c>
       <c r="P19">
-        <v>0.4876363108936635</v>
+        <v>0.4698123704370931</v>
       </c>
       <c r="Q19">
-        <v>37.36387928304067</v>
+        <v>19.53631665099</v>
       </c>
       <c r="R19">
-        <v>37.36387928304067</v>
+        <v>117.21789990594</v>
       </c>
       <c r="S19">
-        <v>0.04677647692988895</v>
+        <v>0.01261688509352723</v>
       </c>
       <c r="T19">
-        <v>0.04677647692988895</v>
+        <v>0.0120794681391332</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.06342330570892</v>
+        <v>6.274366000000001</v>
       </c>
       <c r="H20">
-        <v>5.06342330570892</v>
+        <v>18.823098</v>
       </c>
       <c r="I20">
-        <v>0.07929042919194809</v>
+        <v>0.09211165100300041</v>
       </c>
       <c r="J20">
-        <v>0.07929042919194809</v>
+        <v>0.1052138410297959</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.00724431067492</v>
+        <v>1.213046</v>
       </c>
       <c r="N20">
-        <v>1.00724431067492</v>
+        <v>2.426092</v>
       </c>
       <c r="O20">
-        <v>0.08052557584625857</v>
+        <v>0.05336321833961649</v>
       </c>
       <c r="P20">
-        <v>0.08052557584625857</v>
+        <v>0.04472798873679122</v>
       </c>
       <c r="Q20">
-        <v>5.100104317214106</v>
+        <v>7.611094578836001</v>
       </c>
       <c r="R20">
-        <v>5.100104317214106</v>
+        <v>45.66656747301601</v>
       </c>
       <c r="S20">
-        <v>0.006384907469778611</v>
+        <v>0.004915374144095665</v>
       </c>
       <c r="T20">
-        <v>0.006384907469778611</v>
+        <v>0.004706003496535255</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.06342330570892</v>
+        <v>6.274366000000001</v>
       </c>
       <c r="H21">
-        <v>5.06342330570892</v>
+        <v>18.823098</v>
       </c>
       <c r="I21">
-        <v>0.07929042919194809</v>
+        <v>0.09211165100300041</v>
       </c>
       <c r="J21">
-        <v>0.07929042919194809</v>
+        <v>0.1052138410297959</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.217694049622112</v>
+        <v>0.281543</v>
       </c>
       <c r="N21">
-        <v>0.217694049622112</v>
+        <v>0.844629</v>
       </c>
       <c r="O21">
-        <v>0.01740385973724522</v>
+        <v>0.01238538405055591</v>
       </c>
       <c r="P21">
-        <v>0.01740385973724522</v>
+        <v>0.01557177402949568</v>
       </c>
       <c r="Q21">
-        <v>1.102277124370756</v>
+        <v>1.766503826738</v>
       </c>
       <c r="R21">
-        <v>1.102277124370756</v>
+        <v>15.898534440642</v>
       </c>
       <c r="S21">
-        <v>0.001379959508162639</v>
+        <v>0.001140838173202933</v>
       </c>
       <c r="T21">
-        <v>0.001379959508162639</v>
+        <v>0.001638366157291263</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.06342330570892</v>
+        <v>6.274366000000001</v>
       </c>
       <c r="H22">
-        <v>5.06342330570892</v>
+        <v>18.823098</v>
       </c>
       <c r="I22">
-        <v>0.07929042919194809</v>
+        <v>0.09211165100300041</v>
       </c>
       <c r="J22">
-        <v>0.07929042919194809</v>
+        <v>0.1052138410297959</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.88919669416202</v>
+        <v>4.907802333333334</v>
       </c>
       <c r="N22">
-        <v>1.88919669416202</v>
+        <v>14.723407</v>
       </c>
       <c r="O22">
-        <v>0.1510345107656239</v>
+        <v>0.215899584584052</v>
       </c>
       <c r="P22">
-        <v>0.1510345107656239</v>
+        <v>0.2714441094827373</v>
       </c>
       <c r="Q22">
-        <v>9.565802570288218</v>
+        <v>30.79334809498734</v>
       </c>
       <c r="R22">
-        <v>9.565802570288218</v>
+        <v>277.140132854886</v>
       </c>
       <c r="S22">
-        <v>0.01197559118140223</v>
+        <v>0.01988686718689896</v>
       </c>
       <c r="T22">
-        <v>0.01197559118140223</v>
+        <v>0.02855967738359125</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.06342330570892</v>
+        <v>6.274366000000001</v>
       </c>
       <c r="H23">
-        <v>5.06342330570892</v>
+        <v>18.823098</v>
       </c>
       <c r="I23">
-        <v>0.07929042919194809</v>
+        <v>0.09211165100300041</v>
       </c>
       <c r="J23">
-        <v>0.07929042919194809</v>
+        <v>0.1052138410297959</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.06632170407475</v>
+        <v>3.286588</v>
       </c>
       <c r="N23">
-        <v>3.06632170407475</v>
+        <v>9.859764</v>
       </c>
       <c r="O23">
-        <v>0.2451414401984055</v>
+        <v>0.144580595489671</v>
       </c>
       <c r="P23">
-        <v>0.2451414401984055</v>
+        <v>0.1817768712560857</v>
       </c>
       <c r="Q23">
-        <v>15.52608477921318</v>
+        <v>20.621256003208</v>
       </c>
       <c r="R23">
-        <v>15.52608477921318</v>
+        <v>185.591304028872</v>
       </c>
       <c r="S23">
-        <v>0.01943737000606385</v>
+        <v>0.01331755735355055</v>
       </c>
       <c r="T23">
-        <v>0.01943737000606385</v>
+        <v>0.01912544283523149</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.06342330570892</v>
+        <v>6.274366000000001</v>
       </c>
       <c r="H24">
-        <v>5.06342330570892</v>
+        <v>18.823098</v>
       </c>
       <c r="I24">
-        <v>0.07929042919194809</v>
+        <v>0.09211165100300041</v>
       </c>
       <c r="J24">
-        <v>0.07929042919194809</v>
+        <v>0.1052138410297959</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.228381743088031</v>
+        <v>0.301343</v>
       </c>
       <c r="N24">
-        <v>0.228381743088031</v>
+        <v>0.904029</v>
       </c>
       <c r="O24">
-        <v>0.01825830255880332</v>
+        <v>0.01325640767465953</v>
       </c>
       <c r="P24">
-        <v>0.01825830255880332</v>
+        <v>0.01666688605779691</v>
       </c>
       <c r="Q24">
-        <v>1.156393440550363</v>
+        <v>1.890736273538</v>
       </c>
       <c r="R24">
-        <v>1.156393440550363</v>
+        <v>17.016626461842</v>
       </c>
       <c r="S24">
-        <v>0.001447708646203959</v>
+        <v>0.001221069597281735</v>
       </c>
       <c r="T24">
-        <v>0.001447708646203959</v>
+        <v>0.001753587100146767</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.06342330570892</v>
+        <v>6.274366000000001</v>
       </c>
       <c r="H25">
-        <v>5.06342330570892</v>
+        <v>18.823098</v>
       </c>
       <c r="I25">
-        <v>0.07929042919194809</v>
+        <v>0.09211165100300041</v>
       </c>
       <c r="J25">
-        <v>0.07929042919194809</v>
+        <v>0.1052138410297959</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.09953911740912</v>
+        <v>12.7415525</v>
       </c>
       <c r="N25">
-        <v>6.09953911740912</v>
+        <v>25.483105</v>
       </c>
       <c r="O25">
-        <v>0.4876363108936635</v>
+        <v>0.560514809861445</v>
       </c>
       <c r="P25">
-        <v>0.4876363108936635</v>
+        <v>0.4698123704370931</v>
       </c>
       <c r="Q25">
-        <v>30.88454852117255</v>
+        <v>79.94516379321502</v>
       </c>
       <c r="R25">
-        <v>30.88454852117255</v>
+        <v>479.6709827592901</v>
       </c>
       <c r="S25">
-        <v>0.03866489238033681</v>
+        <v>0.05162994454797055</v>
       </c>
       <c r="T25">
-        <v>0.03866489238033681</v>
+        <v>0.04943076405699992</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.5860630381085</v>
+        <v>5.769386999999999</v>
       </c>
       <c r="H26">
-        <v>19.5860630381085</v>
+        <v>17.308161</v>
       </c>
       <c r="I26">
-        <v>0.3067069945981424</v>
+        <v>0.08469824072189085</v>
       </c>
       <c r="J26">
-        <v>0.3067069945981424</v>
+        <v>0.09674592885677552</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.00724431067492</v>
+        <v>1.213046</v>
       </c>
       <c r="N26">
-        <v>1.00724431067492</v>
+        <v>2.426092</v>
       </c>
       <c r="O26">
-        <v>0.08052557584625857</v>
+        <v>0.05336321833961649</v>
       </c>
       <c r="P26">
-        <v>0.08052557584625857</v>
+        <v>0.04472798873679122</v>
       </c>
       <c r="Q26">
-        <v>19.72795056365512</v>
+        <v>6.998531822802</v>
       </c>
       <c r="R26">
-        <v>19.72795056365512</v>
+        <v>41.991190936812</v>
       </c>
       <c r="S26">
-        <v>0.02469775735609073</v>
+        <v>0.004519770712623658</v>
       </c>
       <c r="T26">
-        <v>0.02469775735609073</v>
+        <v>0.00432725081623626</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>19.5860630381085</v>
+        <v>5.769386999999999</v>
       </c>
       <c r="H27">
-        <v>19.5860630381085</v>
+        <v>17.308161</v>
       </c>
       <c r="I27">
-        <v>0.3067069945981424</v>
+        <v>0.08469824072189085</v>
       </c>
       <c r="J27">
-        <v>0.3067069945981424</v>
+        <v>0.09674592885677552</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.217694049622112</v>
+        <v>0.281543</v>
       </c>
       <c r="N27">
-        <v>0.217694049622112</v>
+        <v>0.844629</v>
       </c>
       <c r="O27">
-        <v>0.01740385973724522</v>
+        <v>0.01238538405055591</v>
       </c>
       <c r="P27">
-        <v>0.01740385973724522</v>
+        <v>0.01557177402949568</v>
       </c>
       <c r="Q27">
-        <v>4.263769378919806</v>
+        <v>1.624330524141</v>
       </c>
       <c r="R27">
-        <v>4.263769378919806</v>
+        <v>14.618974717269</v>
       </c>
       <c r="S27">
-        <v>0.005337885514418097</v>
+        <v>0.001049020239747052</v>
       </c>
       <c r="T27">
-        <v>0.005337885514418097</v>
+        <v>0.001506505742431374</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>19.5860630381085</v>
+        <v>5.769386999999999</v>
       </c>
       <c r="H28">
-        <v>19.5860630381085</v>
+        <v>17.308161</v>
       </c>
       <c r="I28">
-        <v>0.3067069945981424</v>
+        <v>0.08469824072189085</v>
       </c>
       <c r="J28">
-        <v>0.3067069945981424</v>
+        <v>0.09674592885677552</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.88919669416202</v>
+        <v>4.907802333333334</v>
       </c>
       <c r="N28">
-        <v>1.88919669416202</v>
+        <v>14.723407</v>
       </c>
       <c r="O28">
-        <v>0.1510345107656239</v>
+        <v>0.215899584584052</v>
       </c>
       <c r="P28">
-        <v>0.1510345107656239</v>
+        <v>0.2714441094827373</v>
       </c>
       <c r="Q28">
-        <v>37.0019255432435</v>
+        <v>28.315010980503</v>
       </c>
       <c r="R28">
-        <v>37.0019255432435</v>
+        <v>254.835098824527</v>
       </c>
       <c r="S28">
-        <v>0.0463233408775253</v>
+        <v>0.01828631498685627</v>
       </c>
       <c r="T28">
-        <v>0.0463233408775253</v>
+        <v>0.02626111250460769</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>19.5860630381085</v>
+        <v>5.769386999999999</v>
       </c>
       <c r="H29">
-        <v>19.5860630381085</v>
+        <v>17.308161</v>
       </c>
       <c r="I29">
-        <v>0.3067069945981424</v>
+        <v>0.08469824072189085</v>
       </c>
       <c r="J29">
-        <v>0.3067069945981424</v>
+        <v>0.09674592885677552</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.06632170407475</v>
+        <v>3.286588</v>
       </c>
       <c r="N29">
-        <v>3.06632170407475</v>
+        <v>9.859764</v>
       </c>
       <c r="O29">
-        <v>0.2451414401984055</v>
+        <v>0.144580595489671</v>
       </c>
       <c r="P29">
-        <v>0.2451414401984055</v>
+        <v>0.1817768712560857</v>
       </c>
       <c r="Q29">
-        <v>60.05717019112833</v>
+        <v>18.961598081556</v>
       </c>
       <c r="R29">
-        <v>60.05717019112833</v>
+        <v>170.654382734004</v>
       </c>
       <c r="S29">
-        <v>0.0751865943747132</v>
+        <v>0.01224572208049848</v>
       </c>
       <c r="T29">
-        <v>0.0751865943747132</v>
+        <v>0.01758617225434852</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>19.5860630381085</v>
+        <v>5.769386999999999</v>
       </c>
       <c r="H30">
-        <v>19.5860630381085</v>
+        <v>17.308161</v>
       </c>
       <c r="I30">
-        <v>0.3067069945981424</v>
+        <v>0.08469824072189085</v>
       </c>
       <c r="J30">
-        <v>0.3067069945981424</v>
+        <v>0.09674592885677552</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.228381743088031</v>
+        <v>0.301343</v>
       </c>
       <c r="N30">
-        <v>0.228381743088031</v>
+        <v>0.904029</v>
       </c>
       <c r="O30">
-        <v>0.01825830255880332</v>
+        <v>0.01325640767465953</v>
       </c>
       <c r="P30">
-        <v>0.01825830255880332</v>
+        <v>0.01666688605779691</v>
       </c>
       <c r="Q30">
-        <v>4.473099216875275</v>
+        <v>1.738564386741</v>
       </c>
       <c r="R30">
-        <v>4.473099216875275</v>
+        <v>15.647079480669</v>
       </c>
       <c r="S30">
-        <v>0.005599949104274139</v>
+        <v>0.001122794408335834</v>
       </c>
       <c r="T30">
-        <v>0.005599949104274139</v>
+        <v>0.001612453372811604</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.769386999999999</v>
+      </c>
+      <c r="H31">
+        <v>17.308161</v>
+      </c>
+      <c r="I31">
+        <v>0.08469824072189085</v>
+      </c>
+      <c r="J31">
+        <v>0.09674592885677552</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.7415525</v>
+      </c>
+      <c r="N31">
+        <v>25.483105</v>
+      </c>
+      <c r="O31">
+        <v>0.560514809861445</v>
+      </c>
+      <c r="P31">
+        <v>0.4698123704370931</v>
+      </c>
+      <c r="Q31">
+        <v>73.51094735331749</v>
+      </c>
+      <c r="R31">
+        <v>441.065684119905</v>
+      </c>
+      <c r="S31">
+        <v>0.04747461829382955</v>
+      </c>
+      <c r="T31">
+        <v>0.04545243416634008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>19.8910855</v>
+      </c>
+      <c r="H32">
+        <v>39.78217100000001</v>
+      </c>
+      <c r="I32">
+        <v>0.2920136832385682</v>
+      </c>
+      <c r="J32">
+        <v>0.222366956566563</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.213046</v>
+      </c>
+      <c r="N32">
+        <v>2.426092</v>
+      </c>
+      <c r="O32">
+        <v>0.05336321833961649</v>
+      </c>
+      <c r="P32">
+        <v>0.04472798873679122</v>
+      </c>
+      <c r="Q32">
+        <v>24.12880170143301</v>
+      </c>
+      <c r="R32">
+        <v>96.51520680573202</v>
+      </c>
+      <c r="S32">
+        <v>0.01558278993681532</v>
+      </c>
+      <c r="T32">
+        <v>0.00994602672874377</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>19.8910855</v>
+      </c>
+      <c r="H33">
+        <v>39.78217100000001</v>
+      </c>
+      <c r="I33">
+        <v>0.2920136832385682</v>
+      </c>
+      <c r="J33">
+        <v>0.222366956566563</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.281543</v>
+      </c>
+      <c r="N33">
+        <v>0.844629</v>
+      </c>
+      <c r="O33">
+        <v>0.01238538405055591</v>
+      </c>
+      <c r="P33">
+        <v>0.01557177402949568</v>
+      </c>
+      <c r="Q33">
+        <v>5.6001958849265</v>
+      </c>
+      <c r="R33">
+        <v>33.601175309559</v>
+      </c>
+      <c r="S33">
+        <v>0.003616701614927048</v>
+      </c>
+      <c r="T33">
+        <v>0.003462647999281199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>19.8910855</v>
+      </c>
+      <c r="H34">
+        <v>39.78217100000001</v>
+      </c>
+      <c r="I34">
+        <v>0.2920136832385682</v>
+      </c>
+      <c r="J34">
+        <v>0.222366956566563</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>4.907802333333334</v>
+      </c>
+      <c r="N34">
+        <v>14.723407</v>
+      </c>
+      <c r="O34">
+        <v>0.215899584584052</v>
+      </c>
+      <c r="P34">
+        <v>0.2714441094827373</v>
+      </c>
+      <c r="Q34">
+        <v>97.62151582943285</v>
+      </c>
+      <c r="R34">
+        <v>585.729094976597</v>
+      </c>
+      <c r="S34">
+        <v>0.06304563290406583</v>
+      </c>
+      <c r="T34">
+        <v>0.0603602005035972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>19.8910855</v>
+      </c>
+      <c r="H35">
+        <v>39.78217100000001</v>
+      </c>
+      <c r="I35">
+        <v>0.2920136832385682</v>
+      </c>
+      <c r="J35">
+        <v>0.222366956566563</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.286588</v>
+      </c>
+      <c r="N35">
+        <v>9.859764</v>
+      </c>
+      <c r="O35">
+        <v>0.144580595489671</v>
+      </c>
+      <c r="P35">
+        <v>0.1817768712560857</v>
+      </c>
+      <c r="Q35">
+        <v>65.37380291127401</v>
+      </c>
+      <c r="R35">
+        <v>392.242817467644</v>
+      </c>
+      <c r="S35">
+        <v>0.04221951221376435</v>
+      </c>
+      <c r="T35">
+        <v>0.04042116963540773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>19.5860630381085</v>
-      </c>
-      <c r="H31">
-        <v>19.5860630381085</v>
-      </c>
-      <c r="I31">
-        <v>0.3067069945981424</v>
-      </c>
-      <c r="J31">
-        <v>0.3067069945981424</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>6.09953911740912</v>
-      </c>
-      <c r="N31">
-        <v>6.09953911740912</v>
-      </c>
-      <c r="O31">
-        <v>0.4876363108936635</v>
-      </c>
-      <c r="P31">
-        <v>0.4876363108936635</v>
-      </c>
-      <c r="Q31">
-        <v>119.4659576569837</v>
-      </c>
-      <c r="R31">
-        <v>119.4659576569837</v>
-      </c>
-      <c r="S31">
-        <v>0.1495614673711209</v>
-      </c>
-      <c r="T31">
-        <v>0.1495614673711209</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>19.8910855</v>
+      </c>
+      <c r="H36">
+        <v>39.78217100000001</v>
+      </c>
+      <c r="I36">
+        <v>0.2920136832385682</v>
+      </c>
+      <c r="J36">
+        <v>0.222366956566563</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.301343</v>
+      </c>
+      <c r="N36">
+        <v>0.904029</v>
+      </c>
+      <c r="O36">
+        <v>0.01325640767465953</v>
+      </c>
+      <c r="P36">
+        <v>0.01666688605779691</v>
+      </c>
+      <c r="Q36">
+        <v>5.994039377826501</v>
+      </c>
+      <c r="R36">
+        <v>35.96423626695901</v>
+      </c>
+      <c r="S36">
+        <v>0.003871052431589353</v>
+      </c>
+      <c r="T36">
+        <v>0.00370616472811398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>19.8910855</v>
+      </c>
+      <c r="H37">
+        <v>39.78217100000001</v>
+      </c>
+      <c r="I37">
+        <v>0.2920136832385682</v>
+      </c>
+      <c r="J37">
+        <v>0.222366956566563</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>12.7415525</v>
+      </c>
+      <c r="N37">
+        <v>25.483105</v>
+      </c>
+      <c r="O37">
+        <v>0.560514809861445</v>
+      </c>
+      <c r="P37">
+        <v>0.4698123704370931</v>
+      </c>
+      <c r="Q37">
+        <v>253.4433101802388</v>
+      </c>
+      <c r="R37">
+        <v>1013.773240720955</v>
+      </c>
+      <c r="S37">
+        <v>0.1636779941374063</v>
+      </c>
+      <c r="T37">
+        <v>0.1044707469714191</v>
       </c>
     </row>
   </sheetData>
